--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ italic('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ italic('Europe')</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Could sign a petition and spread ideas*</t>
   </si>
   <si>
-    <t xml:space="preserve">More/less likely to vote for party if part of worldwide
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
 coalition for climate action and global redistribution</t>
   </si>
   <si>
@@ -458,40 +458,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.655655850962112</v>
+        <v>0.676534810805915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.723990358459776</v>
+        <v>0.721332037492722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71044950403433</v>
+        <v>0.718477273051152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712663967993029</v>
+        <v>0.713794043022247</v>
       </c>
       <c r="F2" t="n">
-        <v>0.826181702349844</v>
+        <v>0.835137445095979</v>
       </c>
       <c r="G2" t="n">
-        <v>0.718033301587698</v>
+        <v>0.720493599387939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.712285318035079</v>
+        <v>0.710955333769895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.67678564875873</v>
+        <v>0.653314080954257</v>
       </c>
       <c r="J2" t="n">
-        <v>0.602680558861391</v>
+        <v>0.513671213337449</v>
       </c>
       <c r="K2" t="n">
-        <v>0.68799045068617</v>
+        <v>0.688548549215534</v>
       </c>
       <c r="L2" t="n">
-        <v>0.834025654114606</v>
+        <v>0.830308975594909</v>
       </c>
       <c r="M2" t="n">
-        <v>0.551252429258494</v>
+        <v>0.605199635353024</v>
       </c>
     </row>
     <row r="3">
@@ -499,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.600622348325529</v>
+        <v>0.620901115849277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.668610197965298</v>
+        <v>0.667184106111746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.694880361057074</v>
+        <v>0.69708465806629</v>
       </c>
       <c r="E3" t="n">
-        <v>0.645245908298284</v>
+        <v>0.64483932921732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.69885452762718</v>
+        <v>0.704414497289557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.723286735483525</v>
+        <v>0.731607563604334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.638326619607005</v>
+        <v>0.632591123404655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.670856375748608</v>
+        <v>0.653397864920041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.449047731644451</v>
+        <v>0.441280264232045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.559267220961662</v>
+        <v>0.55895690945487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.821057657333128</v>
+        <v>0.806592240726789</v>
       </c>
       <c r="M3" t="n">
-        <v>0.508876202730706</v>
+        <v>0.569669790462046</v>
       </c>
     </row>
     <row r="4">
@@ -540,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681486176692702</v>
+        <v>0.684971976950318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.716431313430533</v>
+        <v>0.709052233549382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72814053707102</v>
+        <v>0.719098657982519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.743591483061403</v>
+        <v>0.742152235473654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.759234192261716</v>
+        <v>0.763169851058816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.590987892497358</v>
+        <v>0.58985384550952</v>
       </c>
       <c r="H4" t="n">
-        <v>0.720461570634532</v>
+        <v>0.730280336839806</v>
       </c>
       <c r="I4" t="n">
-        <v>0.708875889140152</v>
+        <v>0.670504795205127</v>
       </c>
       <c r="J4" t="n">
-        <v>0.655654645346738</v>
+        <v>0.635823622009053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.756803685734663</v>
+        <v>0.7567947956425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.713521251954179</v>
+        <v>0.720406204237396</v>
       </c>
       <c r="M4" t="n">
-        <v>0.608956637939559</v>
+        <v>0.62592635305428</v>
       </c>
     </row>
     <row r="5">
@@ -581,40 +581,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.674342950556184</v>
+        <v>0.68900805933549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782028059993368</v>
+        <v>0.775677051702791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.781644197893431</v>
+        <v>0.771734903093812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.747439530587544</v>
+        <v>0.751979568277151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.876219396595269</v>
+        <v>0.876043090477708</v>
       </c>
       <c r="G5" t="n">
-        <v>0.868567349981661</v>
+        <v>0.863510108850288</v>
       </c>
       <c r="H5" t="n">
-        <v>0.825273205713915</v>
+        <v>0.833950401534969</v>
       </c>
       <c r="I5" t="n">
-        <v>0.663856790680542</v>
+        <v>0.633360142666294</v>
       </c>
       <c r="J5" t="n">
-        <v>0.672154652692808</v>
+        <v>0.636448315030876</v>
       </c>
       <c r="K5" t="n">
-        <v>0.70722264306536</v>
+        <v>0.707735289999905</v>
       </c>
       <c r="L5" t="n">
-        <v>0.930681943657635</v>
+        <v>0.931344413580659</v>
       </c>
       <c r="M5" t="n">
-        <v>0.520277701853759</v>
+        <v>0.56331596653039</v>
       </c>
     </row>
     <row r="6">
@@ -622,40 +622,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.497519776208272</v>
+        <v>0.512219604565784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.545318116476065</v>
+        <v>0.542896550674237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.545579954350035</v>
+        <v>0.535827320778905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.541070685606703</v>
+        <v>0.539225355860669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.572900624572681</v>
+        <v>0.574019337287482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.526641386264675</v>
+        <v>0.522350021312604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.560713877966922</v>
+        <v>0.555062534757864</v>
       </c>
       <c r="I6" t="n">
-        <v>0.531043101188893</v>
+        <v>0.53810514158223</v>
       </c>
       <c r="J6" t="n">
-        <v>0.497507470707634</v>
+        <v>0.475340748466772</v>
       </c>
       <c r="K6" t="n">
-        <v>0.511662098107538</v>
+        <v>0.511153928037327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.393551592050322</v>
+        <v>0.403565123193363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.446554626512108</v>
+        <v>0.487230476694949</v>
       </c>
     </row>
     <row r="7">
@@ -663,38 +663,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.671438471244016</v>
+        <v>0.695278857572257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.729161965343468</v>
+        <v>0.726134304674724</v>
       </c>
       <c r="D7" t="n">
-        <v>0.718448957619837</v>
+        <v>0.71402581429597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.728143943216853</v>
+        <v>0.728071832440562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.818923070305991</v>
+        <v>0.821570383525421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.662373894395845</v>
+        <v>0.658853694361654</v>
       </c>
       <c r="H7" t="n">
-        <v>0.743948234745897</v>
+        <v>0.74949646094094</v>
       </c>
       <c r="I7" t="n">
-        <v>0.689436237765124</v>
+        <v>0.676802361252659</v>
       </c>
       <c r="J7" t="n">
-        <v>0.630456875433706</v>
+        <v>0.578605385877191</v>
       </c>
       <c r="K7" t="n">
-        <v>0.555730301002815</v>
+        <v>0.556265784226856</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.63640137563185</v>
+        <v>0.69916710423467</v>
       </c>
     </row>
     <row r="8">
@@ -702,32 +702,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.441885857145867</v>
+        <v>0.456562906336425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507982551382541</v>
+        <v>0.501356672381347</v>
       </c>
       <c r="D8" t="n">
-        <v>0.447696197684747</v>
+        <v>0.442853090868414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.444781350079385</v>
+        <v>0.449698561724718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.698113042372635</v>
+        <v>0.696212759554335</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.514688544998199</v>
+        <v>0.518269189954419</v>
       </c>
       <c r="I8" t="n">
-        <v>0.459236596342747</v>
+        <v>0.425983039464168</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.377094675612687</v>
+        <v>0.41181289966823</v>
       </c>
     </row>
     <row r="9">
@@ -735,40 +735,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.58549750913276</v>
+        <v>0.603223465440997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.611773781479464</v>
+        <v>0.607150803733878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.427981549494564</v>
+        <v>0.424582945069346</v>
       </c>
       <c r="E9" t="n">
-        <v>0.624289359947953</v>
+        <v>0.625275862367211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75915468948127</v>
+        <v>0.762876042068174</v>
       </c>
       <c r="G9" t="n">
-        <v>0.677654390960191</v>
+        <v>0.669472614383549</v>
       </c>
       <c r="H9" t="n">
-        <v>0.668761463896077</v>
+        <v>0.685963186103624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.59251698606384</v>
+        <v>0.558093135476695</v>
       </c>
       <c r="J9" t="n">
-        <v>0.560717505210331</v>
+        <v>0.568428482571769</v>
       </c>
       <c r="K9" t="n">
-        <v>0.57503258924139</v>
+        <v>0.574711950342667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.890969535044696</v>
+        <v>0.889350738468156</v>
       </c>
       <c r="M9" t="n">
-        <v>0.531172625167756</v>
+        <v>0.581681536294779</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -64,9 +64,8 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Could sign a petition and spread ideas*</t>
@@ -458,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.676534810805915</v>
+        <v>0.683286671200591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.721332037492722</v>
+        <v>0.727267133682238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.718477273051152</v>
+        <v>0.713266166753258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.713794043022247</v>
+        <v>0.722752212925052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.835137445095979</v>
+        <v>0.839866307760825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.720493599387939</v>
+        <v>0.694516301386687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.710955333769895</v>
+        <v>0.727791884744065</v>
       </c>
       <c r="I2" t="n">
-        <v>0.653314080954257</v>
+        <v>0.671225049697161</v>
       </c>
       <c r="J2" t="n">
-        <v>0.513671213337449</v>
+        <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.688548549215534</v>
+        <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.830308975594909</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="M2" t="n">
-        <v>0.605199635353024</v>
+        <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
@@ -499,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.620901115849277</v>
+        <v>0.623345952924007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.667184106111746</v>
+        <v>0.663594295554775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.69708465806629</v>
+        <v>0.698772999587592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.64483932921732</v>
+        <v>0.622101654744799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.704414497289557</v>
+        <v>0.706881256898736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.731607563604334</v>
+        <v>0.699228862448248</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632591123404655</v>
+        <v>0.658500586296013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.653397864920041</v>
+        <v>0.665804066558109</v>
       </c>
       <c r="J3" t="n">
-        <v>0.441280264232045</v>
+        <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55895690945487</v>
+        <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.806592240726789</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.569669790462046</v>
+        <v>0.574114671968279</v>
       </c>
     </row>
     <row r="4">
@@ -540,40 +539,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.684971976950318</v>
+        <v>0.679366394096195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.709052233549382</v>
+        <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719098657982519</v>
+        <v>0.719673932778947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.742152235473654</v>
+        <v>0.704645953003574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763169851058816</v>
+        <v>0.760434225154626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58985384550952</v>
+        <v>0.572739428737827</v>
       </c>
       <c r="H4" t="n">
-        <v>0.730280336839806</v>
+        <v>0.73608837047601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.670504795205127</v>
+        <v>0.679200342355269</v>
       </c>
       <c r="J4" t="n">
-        <v>0.635823622009053</v>
+        <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7567947956425</v>
+        <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
-        <v>0.720406204237396</v>
+        <v>0.713280127381035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.62592635305428</v>
+        <v>0.61682403920896</v>
       </c>
     </row>
     <row r="5">
@@ -581,40 +580,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.68900805933549</v>
+        <v>0.690994277929796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.775677051702791</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.771734903093812</v>
+        <v>0.761687470249255</v>
       </c>
       <c r="E5" t="n">
-        <v>0.751979568277151</v>
+        <v>0.758489172765931</v>
       </c>
       <c r="F5" t="n">
-        <v>0.876043090477708</v>
+        <v>0.874100026122781</v>
       </c>
       <c r="G5" t="n">
-        <v>0.863510108850288</v>
+        <v>0.843596425922759</v>
       </c>
       <c r="H5" t="n">
-        <v>0.833950401534969</v>
+        <v>0.842976707711552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.633360142666294</v>
+        <v>0.658792898536381</v>
       </c>
       <c r="J5" t="n">
-        <v>0.636448315030876</v>
+        <v>0.660378064524565</v>
       </c>
       <c r="K5" t="n">
-        <v>0.707735289999905</v>
+        <v>0.703723773724232</v>
       </c>
       <c r="L5" t="n">
-        <v>0.931344413580659</v>
+        <v>0.930231790695484</v>
       </c>
       <c r="M5" t="n">
-        <v>0.56331596653039</v>
+        <v>0.560975861057092</v>
       </c>
     </row>
     <row r="6">
@@ -622,40 +621,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.512219604565784</v>
+        <v>0.517681293588919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542896550674237</v>
+        <v>0.54627578656303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535827320778905</v>
+        <v>0.530038042676022</v>
       </c>
       <c r="E6" t="n">
-        <v>0.539225355860669</v>
+        <v>0.525216461992543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574019337287482</v>
+        <v>0.574663014312723</v>
       </c>
       <c r="G6" t="n">
-        <v>0.522350021312604</v>
+        <v>0.541227742327436</v>
       </c>
       <c r="H6" t="n">
-        <v>0.555062534757864</v>
+        <v>0.57000212855437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.53810514158223</v>
+        <v>0.5501691998004</v>
       </c>
       <c r="J6" t="n">
-        <v>0.475340748466772</v>
+        <v>0.48406365355452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.511153928037327</v>
+        <v>0.510803804042151</v>
       </c>
       <c r="L6" t="n">
-        <v>0.403565123193363</v>
+        <v>0.404576421408372</v>
       </c>
       <c r="M6" t="n">
-        <v>0.487230476694949</v>
+        <v>0.497966802692056</v>
       </c>
     </row>
     <row r="7">
@@ -663,38 +662,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695278857572257</v>
+        <v>0.682646370364011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.726134304674724</v>
+        <v>0.724046548532723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71402581429597</v>
+        <v>0.71331522240695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.728071832440562</v>
+        <v>0.70786414424213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.821570383525421</v>
+        <v>0.817943755181141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.658853694361654</v>
+        <v>0.642319300405405</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74949646094094</v>
+        <v>0.765355431118643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.676802361252659</v>
+        <v>0.695445383221243</v>
       </c>
       <c r="J7" t="n">
-        <v>0.578605385877191</v>
+        <v>0.578158388278922</v>
       </c>
       <c r="K7" t="n">
-        <v>0.556265784226856</v>
+        <v>0.55749509108139</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.69916710423467</v>
+        <v>0.669518884533573</v>
       </c>
     </row>
     <row r="8">
@@ -702,32 +701,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.456562906336425</v>
+        <v>0.451745267822287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501356672381347</v>
+        <v>0.502618407568093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.442853090868414</v>
+        <v>0.437375697519216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.449698561724718</v>
+        <v>0.43866370099415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.696212759554335</v>
+        <v>0.696737544675098</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.518269189954419</v>
+        <v>0.507401270303301</v>
       </c>
       <c r="I8" t="n">
-        <v>0.425983039464168</v>
+        <v>0.458595587653966</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.41181289966823</v>
+        <v>0.401050394755232</v>
       </c>
     </row>
     <row r="9">
@@ -735,40 +734,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.603223465440997</v>
+        <v>0.595124310025602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.607150803733878</v>
+        <v>0.609896497471146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.424582945069346</v>
+        <v>0.432040689538255</v>
       </c>
       <c r="E9" t="n">
-        <v>0.625275862367211</v>
+        <v>0.620111679474376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.762876042068174</v>
+        <v>0.766975357539963</v>
       </c>
       <c r="G9" t="n">
-        <v>0.669472614383549</v>
+        <v>0.618309495622478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.685963186103624</v>
+        <v>0.708786744917504</v>
       </c>
       <c r="I9" t="n">
-        <v>0.558093135476695</v>
+        <v>0.574354517212933</v>
       </c>
       <c r="J9" t="n">
-        <v>0.568428482571769</v>
+        <v>0.538340937683521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.574711950342667</v>
+        <v>0.583970917094862</v>
       </c>
       <c r="L9" t="n">
-        <v>0.889350738468156</v>
+        <v>0.888820570273345</v>
       </c>
       <c r="M9" t="n">
-        <v>0.581681536294779</v>
+        <v>0.554373497970374</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -68,7 +71,7 @@
 all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas*</t>
+    <t xml:space="preserve">Could sign a petition and spread ideas</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,13 +454,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693901017452085</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -487,18 +493,21 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
+        <v>0.75474525024331</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.642239736998293</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -528,18 +537,21 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
+        <v>0.766098373938282</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.574114671968279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.681044372483487</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -569,18 +581,21 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688032418294747</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.61682403920896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690994277929796</v>
+        <v>0.706072881772088</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
@@ -610,15 +625,18 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L5" t="n">
+        <v>0.785034538455345</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.930231790695484</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.560975861057092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.517681293588919</v>
@@ -650,16 +668,17 @@
       <c r="K6" t="n">
         <v>0.510803804042151</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6"/>
+      <c r="M6" t="n">
         <v>0.404576421408372</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.497966802692056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.682646370364011</v>
@@ -692,16 +711,17 @@
         <v>0.55749509108139</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
+      <c r="M7"/>
+      <c r="N7" t="n">
         <v>0.669518884533573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451745267822288</v>
       </c>
       <c r="C8" t="n">
         <v>0.502618407568093</v>
@@ -725,16 +745,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
+      <c r="M8"/>
+      <c r="N8" t="n">
         <v>0.401050394755232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592409982650417</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
@@ -764,9 +785,12 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L9" t="n">
+        <v>0.575779296121639</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.888820570273345</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.554373497970374</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -71,7 +71,8 @@
 all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -463,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693901017452085</v>
+        <v>0.69404381490905</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -493,7 +494,7 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75474525024331</v>
+        <v>0.755738250031341</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -507,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642239736998293</v>
+        <v>0.642677782115776</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -537,7 +538,7 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.766098373938282</v>
+        <v>0.769229629394801</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -551,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680974666901203</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -581,7 +582,7 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688032418294747</v>
+        <v>0.687742090810018</v>
       </c>
       <c r="M4" t="n">
         <v>0.713280127381035</v>
@@ -595,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.706072881772088</v>
+        <v>0.705883200070147</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
@@ -625,7 +626,7 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L5" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M5" t="n">
         <v>0.930231790695484</v>
@@ -639,41 +640,41 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675505142809517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.510803804042151</v>
+        <v>0.55775498195175</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.404576421408372</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="N6" t="n">
-        <v>0.497966802692056</v>
+        <v>0.666567623760654</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822288</v>
+        <v>0.451745267822287</v>
       </c>
       <c r="C8" t="n">
         <v>0.502618407568093</v>
@@ -755,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592409982650417</v>
+        <v>0.592833289390146</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
@@ -785,7 +786,7 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L9" t="n">
-        <v>0.575779296121639</v>
+        <v>0.578703197664799</v>
       </c>
       <c r="M9" t="n">
         <v>0.888820570273345</v>

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -67,8 +67,8 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69404381490905</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -491,16 +491,16 @@
         <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691563351816597</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.755738250031341</v>
+        <v>0.754855071318372</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622354397487081</v>
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642677782115776</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -535,16 +535,16 @@
         <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55047661217434</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.769229629394801</v>
+        <v>0.756622372880961</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.574114671968279</v>
+        <v>0.57421952327369</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680974666901203</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -579,16 +579,16 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L4" t="n">
-        <v>0.687742090810018</v>
+        <v>0.688615273248795</v>
       </c>
       <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
       <c r="N4" t="n">
-        <v>0.61682403920896</v>
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.705883200070147</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
@@ -623,16 +623,16 @@
         <v>0.660378064524565</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703723773724232</v>
+        <v>0.703727559204962</v>
       </c>
       <c r="L5" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M5" t="n">
         <v>0.930231790695484</v>
       </c>
       <c r="N5" t="n">
-        <v>0.560975861057092</v>
+        <v>0.561007628053552</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.675505142809517</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
         <v>0.719216740354837</v>
@@ -667,14 +667,14 @@
         <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.55775498195175</v>
+        <v>0.557841849059486</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
         <v>0.727098526374066</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666567623760654</v>
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.682646370364011</v>
+        <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
         <v>0.724046548532723</v>
@@ -709,12 +709,12 @@
         <v>0.578158388278922</v>
       </c>
       <c r="K7" t="n">
-        <v>0.55749509108139</v>
+        <v>0.557598270145635</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.669518884533573</v>
+        <v>0.669431535311024</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
         <v>0.502618407568093</v>
@@ -748,7 +748,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.401050394755232</v>
+        <v>0.401158464849325</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592833289390146</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
@@ -783,16 +783,16 @@
         <v>0.538340937683521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.583970917094862</v>
+        <v>0.584137117430032</v>
       </c>
       <c r="L9" t="n">
-        <v>0.578703197664799</v>
+        <v>0.573182308826315</v>
       </c>
       <c r="M9" t="n">
         <v>0.888820570273345</v>
       </c>
       <c r="N9" t="n">
-        <v>0.554373497970374</v>
+        <v>0.554219568199052</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_share.xlsx
@@ -64,7 +64,7 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future*</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
     <t xml:space="preserve">"Governments should actively cooperate to have all countries
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -494,7 +494,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -538,7 +538,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -552,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679200342355269</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.761687470249255</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758489172765931</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.874100026122781</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.843596425922759</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.842976707711552</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.658792898536381</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.660378064524565</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703727559204962</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.930231790695484</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.561007628053552</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,37 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557841849059486</v>
-      </c>
-      <c r="L6"/>
+        <v>0.559364498889858</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.559364498889858</v>
+      </c>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +690,33 @@
         <v>0.724046548532723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71331522240695</v>
+        <v>0.716446447911511</v>
       </c>
       <c r="E7" t="n">
-        <v>0.70786414424213</v>
+        <v>0.705443804036464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.817943755181141</v>
+        <v>0.815943040010246</v>
       </c>
       <c r="G7" t="n">
-        <v>0.642319300405405</v>
+        <v>0.639135429260725</v>
       </c>
       <c r="H7" t="n">
-        <v>0.765355431118643</v>
+        <v>0.765218616839628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.695445383221243</v>
+        <v>0.694592504615592</v>
       </c>
       <c r="J7" t="n">
-        <v>0.578158388278922</v>
+        <v>0.566948275489208</v>
       </c>
       <c r="K7" t="n">
-        <v>0.557598270145635</v>
+        <v>0.557987381952544</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.669431535311024</v>
+        <v>0.670153434751546</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +730,27 @@
         <v>0.502618407568093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.437375697519216</v>
+        <v>0.438407527923474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43866370099415</v>
+        <v>0.439022530105316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.696737544675098</v>
+        <v>0.693097173376912</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.507401270303301</v>
+        <v>0.510821694970915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458595587653966</v>
+        <v>0.457151305629475</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.401158464849325</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
     <row r="9">
@@ -756,43 +758,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.432040689538255</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.620111679474376</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.766975357539963</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.618309495622478</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.708786744917504</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.574354517212933</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J9" t="n">
-        <v>0.538340937683521</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.584137117430032</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.573182308826315</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M9" t="n">
-        <v>0.888820570273345</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N9" t="n">
-        <v>0.554219568199052</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
   </sheetData>
